--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383164.724408245</v>
+        <v>1382424.261587522</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>124.4111913607919</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.59055287843495</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642677</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.8728397687461</v>
+        <v>65.87283976874616</v>
       </c>
       <c r="T11" t="n">
-        <v>89.1834140824707</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715478</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560312</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192614</v>
+        <v>15.72846453192619</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>141.8780902789795</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067126</v>
+        <v>13.35261136067132</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115127</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622706</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>183.315940516563</v>
+        <v>67.36632966027165</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076486</v>
+        <v>74.05638417076491</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459174</v>
+        <v>73.9660947445918</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922474</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591527</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549974</v>
+        <v>16.8988719854998</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385661</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021868</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028134</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304861</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755893</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437363</v>
+        <v>35.45957938437369</v>
       </c>
       <c r="S13" t="n">
-        <v>88.3787084052949</v>
+        <v>88.37870840529496</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494639</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911154</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632459</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938223</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>251.0172406307681</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382951</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045933</v>
+        <v>179.0086996439941</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>20.11928797636173</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374225</v>
+        <v>196.0356574374224</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457566</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715489</v>
+        <v>34.81658261715484</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560329</v>
+        <v>40.99189795560324</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.9284794226885</v>
+        <v>25.92847942268844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.65885545603204</v>
+        <v>13.35261136067137</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115184</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622723</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027176</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475029</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>119.9783821282072</v>
+        <v>152.433850359613</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459191</v>
+        <v>73.96609474459186</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922485</v>
+        <v>48.11537914922479</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591539</v>
+        <v>35.53022006591533</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549991</v>
+        <v>16.89887198549985</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385672</v>
+        <v>14.71736161385667</v>
       </c>
       <c r="F16" t="n">
-        <v>13.7044469902188</v>
+        <v>13.70444699021874</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028146</v>
+        <v>36.0493695902814</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304872</v>
+        <v>28.51003926304866</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893012</v>
+        <v>16.96724755893006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.4595793843738</v>
+        <v>35.45957938437375</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529507</v>
+        <v>88.37870840529501</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494651</v>
+        <v>95.26758743494645</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200258</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911156</v>
+        <v>120.4210422911155</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038786</v>
+        <v>154.8063973038785</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632471</v>
+        <v>93.99305435632465</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938234</v>
+        <v>86.86805231938229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111898</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770503</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,13 +1932,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>70.45352937571624</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>70.40163975669726</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480171</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.4328844084325</v>
+        <v>180.4328844084326</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>32.13431643745587</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>166.8803918446226</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>180.4328844084326</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350528</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
@@ -2333,7 +2333,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>67.17163062884832</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
@@ -2451,10 +2451,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>51.16783365984773</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13.25670399134625</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>13.25670399134638</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850287</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
-        <v>215.2288314925557</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D26" t="n">
-        <v>204.6389813422311</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938099</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632596</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G26" t="n">
-        <v>264.7570588588538</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2935426253703</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068749</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300683</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673143</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U26" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
-        <v>177.708198191683</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1969084389611</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776017</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.48912337141545</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S27" t="n">
         <v>166.6979539789397</v>
@@ -2688,16 +2688,16 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901089</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>101.6509228824677</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>161.5541279978438</v>
+        <v>64.23433649061052</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.7879199034854</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017594</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454201</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730927</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863436</v>
+        <v>17.13212013863424</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955562</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920706</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2626958742864</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0935830453761</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W28" t="n">
-        <v>136.4789380581391</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058526</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.5405930736429</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,19 +2798,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068732</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300666</v>
+        <v>47.54538052300672</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673126</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W29" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2871,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>127.0323352763164</v>
+        <v>13.50743702872061</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S30" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453214</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.6386354988523</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348523</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017577</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454184</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.1825800173091</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863419</v>
+        <v>17.13212013863424</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955545</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920689</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W31" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058509</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364273</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068743</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300677</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673137</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
-        <v>177.708198191683</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W32" t="n">
-        <v>199.1969084389611</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
         <v>219.6870404000171</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141536</v>
       </c>
       <c r="C33" t="n">
-        <v>22.66443870986379</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948964</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>108.6534478909567</v>
       </c>
       <c r="T33" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>167.8792187894798</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>82.75652687097332</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348535</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017588</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454196</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730922</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.1321201386343</v>
+        <v>17.13212013863427</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955557</v>
+        <v>70.05124915955554</v>
       </c>
       <c r="T34" t="n">
-        <v>76.940128189207</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
-        <v>102.0935830453761</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W34" t="n">
-        <v>136.4789380581391</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.6655951105852</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364284</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>70.28875904664417</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
@@ -3402,13 +3402,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>107.2777494450458</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.18606330980461</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="39">
@@ -3585,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>129.5133642302301</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>47.09537185776312</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.4328844084326</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V40" t="n">
-        <v>48.75707585957338</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44.42522992779425</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
@@ -3876,10 +3876,10 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424197</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>114.2941245233626</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>120.1006484492992</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475652</v>
       </c>
       <c r="U43" t="n">
-        <v>185.5073894868543</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140771</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>193.9011040221224</v>
       </c>
       <c r="H44" t="n">
-        <v>113.437587788638</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>53.58667228661869</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -4116,13 +4116,13 @@
         <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
-        <v>30.79496804573628</v>
+        <v>195.3603244329958</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.1006484492993</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475624</v>
       </c>
       <c r="U46" t="n">
         <v>65.40674103755494</v>
@@ -4195,7 +4195,7 @@
         <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
-        <v>118.4030017132558</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X46" t="n">
         <v>4.80964027385383</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>990.7232154271222</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="C11" t="n">
-        <v>754.8077702369252</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="D11" t="n">
-        <v>629.1399001755192</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="E11" t="n">
-        <v>376.3987193274895</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="F11" t="n">
-        <v>376.3987193274895</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608228</v>
+        <v>75.47486957740381</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608228</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I11" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020947</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241028</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
         <v>1477.958695736267</v>
@@ -5066,7 +5066,7 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708068</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
         <v>1365.072875059107</v>
@@ -5075,16 +5075,16 @@
         <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1244.275983741029</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1244.275983741029</v>
+        <v>826.538584627773</v>
       </c>
       <c r="X11" t="n">
-        <v>1244.275983741029</v>
+        <v>586.1198981169078</v>
       </c>
       <c r="Y11" t="n">
-        <v>1244.275983741029</v>
+        <v>329.0276378913109</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.9118686632564</v>
+        <v>382.9856159598006</v>
       </c>
       <c r="C12" t="n">
-        <v>357.5059111323442</v>
+        <v>208.5325866786735</v>
       </c>
       <c r="D12" t="n">
-        <v>341.6185732213077</v>
+        <v>192.645248767637</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158521</v>
+        <v>49.33404646563748</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929519</v>
+        <v>35.84656024273716</v>
       </c>
       <c r="G12" t="n">
         <v>30.433907073934</v>
@@ -5121,22 +5121,22 @@
         <v>54.79813383722131</v>
       </c>
       <c r="K12" t="n">
-        <v>223.0613211674322</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867618</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M12" t="n">
-        <v>887.335937826695</v>
+        <v>719.0727504964841</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.723818564189</v>
+        <v>873.0305803211014</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
@@ -5145,25 +5145,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751016</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T12" t="n">
-        <v>1301.193037067619</v>
+        <v>1285.266784364163</v>
       </c>
       <c r="U12" t="n">
-        <v>1072.987254363111</v>
+        <v>1057.061001659655</v>
       </c>
       <c r="V12" t="n">
-        <v>837.8351461313686</v>
+        <v>821.9088934279127</v>
       </c>
       <c r="W12" t="n">
-        <v>716.6448611533817</v>
+        <v>567.6715366997112</v>
       </c>
       <c r="X12" t="n">
-        <v>641.8404326980636</v>
+        <v>492.8671082443931</v>
       </c>
       <c r="Y12" t="n">
-        <v>567.1272056833245</v>
+        <v>418.1538812296538</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858026</v>
+        <v>194.451641485803</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081108</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459898</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138114</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661158</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946784</v>
+        <v>76.37056042946796</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184304</v>
+        <v>47.5725409718431</v>
       </c>
       <c r="I13" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.1567902022048</v>
+        <v>84.15679020220475</v>
       </c>
       <c r="K13" t="n">
-        <v>203.4791748685373</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L13" t="n">
-        <v>263.9114356143799</v>
+        <v>278.822193815976</v>
       </c>
       <c r="M13" t="n">
-        <v>468.4173394595715</v>
+        <v>483.3280976611675</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341119</v>
+        <v>676.5957735341128</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624643</v>
+        <v>862.8204075624651</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856995</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877739</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493641</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936913</v>
+        <v>582.111119393692</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069461</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591434</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658276</v>
+        <v>243.053034565828</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>552.2933099455383</v>
+        <v>489.1896084405935</v>
       </c>
       <c r="C14" t="n">
-        <v>316.3778647553412</v>
+        <v>489.1896084405935</v>
       </c>
       <c r="D14" t="n">
-        <v>316.3778647553412</v>
+        <v>489.1896084405935</v>
       </c>
       <c r="E14" t="n">
-        <v>316.3778647553412</v>
+        <v>489.1896084405935</v>
       </c>
       <c r="F14" t="n">
-        <v>316.3778647553412</v>
+        <v>211.2507754012008</v>
       </c>
       <c r="G14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020973</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326559</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N14" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O14" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
         <v>1521.6953536967</v>
@@ -5306,22 +5306,22 @@
         <v>1521.6953536967</v>
       </c>
       <c r="T14" t="n">
-        <v>1501.372840589264</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U14" t="n">
-        <v>1501.372840589264</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="V14" t="n">
-        <v>1303.357024995908</v>
+        <v>1202.882646785265</v>
       </c>
       <c r="W14" t="n">
-        <v>1303.357024995908</v>
+        <v>983.1610632653658</v>
       </c>
       <c r="X14" t="n">
-        <v>1062.938338485043</v>
+        <v>742.7423767545006</v>
       </c>
       <c r="Y14" t="n">
-        <v>805.8460782594456</v>
+        <v>742.7423767545006</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>516.0326877100147</v>
+        <v>265.8647969130421</v>
       </c>
       <c r="C15" t="n">
-        <v>474.6267301791023</v>
+        <v>224.4588393821297</v>
       </c>
       <c r="D15" t="n">
-        <v>325.692320517851</v>
+        <v>75.52442972087844</v>
       </c>
       <c r="E15" t="n">
-        <v>299.5019372626101</v>
+        <v>49.33404646563759</v>
       </c>
       <c r="F15" t="n">
-        <v>279.6445075090423</v>
+        <v>35.84656024273721</v>
       </c>
       <c r="G15" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>40.49277633162788</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K15" t="n">
-        <v>208.7559636618387</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L15" t="n">
-        <v>496.4109802811683</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M15" t="n">
-        <v>873.0305803211016</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211016</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453613</v>
+        <v>1199.307472959207</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616427</v>
+        <v>1432.689066122021</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114378</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1190.10807340987</v>
+        <v>972.7234838567416</v>
       </c>
       <c r="V15" t="n">
-        <v>954.9559651781274</v>
+        <v>737.5713756249988</v>
       </c>
       <c r="W15" t="n">
-        <v>833.7656802001403</v>
+        <v>583.5977894031676</v>
       </c>
       <c r="X15" t="n">
-        <v>625.9141799946075</v>
+        <v>375.7462891976347</v>
       </c>
       <c r="Y15" t="n">
-        <v>551.2009529798681</v>
+        <v>301.0330621828954</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858038</v>
+        <v>194.4516414858034</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081115</v>
+        <v>158.5625303081112</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459904</v>
+        <v>141.4929626459901</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138119</v>
+        <v>126.6269408138116</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661161</v>
+        <v>112.7840650661159</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946818</v>
+        <v>76.37056042946806</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184321</v>
+        <v>47.57254097184315</v>
       </c>
       <c r="I16" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>69.24603200061236</v>
+        <v>69.24603200061111</v>
       </c>
       <c r="K16" t="n">
-        <v>203.4791748685409</v>
+        <v>203.4791748685397</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3108706367688</v>
+        <v>394.3108706367677</v>
       </c>
       <c r="M16" t="n">
-        <v>598.8167744819602</v>
+        <v>468.4173394595738</v>
       </c>
       <c r="N16" t="n">
-        <v>806.9952085565005</v>
+        <v>676.5957735341141</v>
       </c>
       <c r="O16" t="n">
-        <v>993.2198425848528</v>
+        <v>862.8204075624664</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206717</v>
+        <v>1017.467262206716</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571225</v>
+        <v>1081.219273571224</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617312</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939857011</v>
+        <v>956.1300939857003</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877754</v>
+        <v>859.9002076877746</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493655</v>
+        <v>703.7485358493648</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936932</v>
+        <v>582.1111193936925</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069472</v>
+        <v>425.7410211069466</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591445</v>
+        <v>330.7985419591439</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658289</v>
+        <v>243.0530345658285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810903</v>
+        <v>872.4784887810904</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230553</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693746</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243307</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372724</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.433907073934</v>
@@ -5516,19 +5516,19 @@
         <v>60.75260108020957</v>
       </c>
       <c r="K17" t="n">
-        <v>226.937268332656</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241028</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O17" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
         <v>1477.958695736267</v>
@@ -5546,10 +5546,10 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
         <v>1303.351633548413</v>
@@ -5558,7 +5558,7 @@
         <v>1169.663137131897</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>623.8096765378583</v>
+        <v>409.7709529282329</v>
       </c>
       <c r="C18" t="n">
-        <v>449.3566472567313</v>
+        <v>409.7709529282329</v>
       </c>
       <c r="D18" t="n">
-        <v>300.42223759548</v>
+        <v>260.8365432669817</v>
       </c>
       <c r="E18" t="n">
-        <v>141.1847825900245</v>
+        <v>101.5990882615262</v>
       </c>
       <c r="F18" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H18" t="n">
         <v>30.433907073934</v>
@@ -5595,16 +5595,16 @@
         <v>54.79813383722131</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0613211674322</v>
+        <v>208.7559636618386</v>
       </c>
       <c r="L18" t="n">
-        <v>510.7163377867618</v>
+        <v>496.4109802811682</v>
       </c>
       <c r="M18" t="n">
-        <v>873.0305803211016</v>
+        <v>496.4109802811682</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211016</v>
+        <v>873.0305803211014</v>
       </c>
       <c r="O18" t="n">
         <v>1185.002115453613</v>
@@ -5616,28 +5616,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T18" t="n">
-        <v>1320.601484309847</v>
+        <v>1236.263966506934</v>
       </c>
       <c r="U18" t="n">
-        <v>1249.48871687884</v>
+        <v>1008.058183802426</v>
       </c>
       <c r="V18" t="n">
-        <v>1014.336608647097</v>
+        <v>1008.058183802426</v>
       </c>
       <c r="W18" t="n">
-        <v>999.8765137634591</v>
+        <v>993.5980889187878</v>
       </c>
       <c r="X18" t="n">
-        <v>792.0250135579263</v>
+        <v>785.7465887132549</v>
       </c>
       <c r="Y18" t="n">
-        <v>792.0250135579263</v>
+        <v>577.986289948301</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5698,16 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S19" t="n">
-        <v>144.4025233717154</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4025233717154</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U19" t="n">
-        <v>94.98104162765442</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V19" t="n">
-        <v>80.07381526633108</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W19" t="n">
         <v>30.433907073934</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810903</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693748</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243308</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.433907073934</v>
@@ -5759,7 +5759,7 @@
         <v>485.3806706550284</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5768,7 +5768,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
         <v>1521.6953536967</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>566.1060162593278</v>
+        <v>350.2869471465828</v>
       </c>
       <c r="C21" t="n">
-        <v>566.1060162593278</v>
+        <v>350.2869471465828</v>
       </c>
       <c r="D21" t="n">
-        <v>417.1716065980765</v>
+        <v>201.3525374853315</v>
       </c>
       <c r="E21" t="n">
-        <v>257.934151592621</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I21" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>54.79813383722131</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674322</v>
+        <v>144.107898754417</v>
       </c>
       <c r="L21" t="n">
-        <v>496.4109802811683</v>
+        <v>431.7629153737466</v>
       </c>
       <c r="M21" t="n">
-        <v>873.0305803211016</v>
+        <v>808.3825154136798</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211016</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O21" t="n">
         <v>1185.002115453613</v>
@@ -5853,28 +5853,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1184.747529632496</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>956.5417469279879</v>
+        <v>839.6764121065272</v>
       </c>
       <c r="V21" t="n">
-        <v>956.5417469279879</v>
+        <v>604.5243038747844</v>
       </c>
       <c r="W21" t="n">
-        <v>942.0816520443498</v>
+        <v>350.2869471465828</v>
       </c>
       <c r="X21" t="n">
-        <v>942.0816520443498</v>
+        <v>350.2869471465828</v>
       </c>
       <c r="Y21" t="n">
-        <v>734.3213532793959</v>
+        <v>350.2869471465828</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765442</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633108</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W22" t="n">
         <v>30.433907073934</v>
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810896</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230546</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693745</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243305</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241028</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
         <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.9028747083003</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="C24" t="n">
-        <v>325.9028747083003</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D24" t="n">
-        <v>176.968465047049</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E24" t="n">
-        <v>176.968465047049</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K24" t="n">
-        <v>30.433907073934</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0889236932636</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M24" t="n">
-        <v>694.7085237331969</v>
+        <v>862.9717110634075</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211007</v>
       </c>
       <c r="O24" t="n">
-        <v>1383.299658905642</v>
+        <v>1185.002115453612</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893787</v>
+        <v>1453.845221748368</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197888</v>
+        <v>1285.463450052469</v>
       </c>
       <c r="T24" t="n">
-        <v>1067.882194811035</v>
+        <v>1084.369580665616</v>
       </c>
       <c r="U24" t="n">
-        <v>839.6764121065274</v>
+        <v>1084.369580665616</v>
       </c>
       <c r="V24" t="n">
-        <v>839.6764121065274</v>
+        <v>849.2174724338736</v>
       </c>
       <c r="W24" t="n">
-        <v>585.4390553783257</v>
+        <v>594.980115705672</v>
       </c>
       <c r="X24" t="n">
-        <v>377.5875551727929</v>
+        <v>387.1286155001392</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.9028747083003</v>
+        <v>179.3683167351853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881259</v>
@@ -6163,10 +6163,10 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="R25" t="n">
         <v>157.7931334639843</v>
@@ -6175,22 +6175,22 @@
         <v>157.7931334639843</v>
       </c>
       <c r="T25" t="n">
-        <v>157.7931334639843</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U25" t="n">
-        <v>108.3716517199234</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V25" t="n">
-        <v>93.46442535860002</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.82451716620294</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
         <v>1250.781708514024</v>
@@ -6209,46 +6209,46 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754846</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450509</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210061</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491207</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471608</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
         <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953159</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
         <v>2718.278735061233</v>
@@ -6260,13 +6260,13 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>729.6675434485594</v>
+        <v>373.2913926120723</v>
       </c>
       <c r="C27" t="n">
-        <v>555.2145141674324</v>
+        <v>350.3980201778666</v>
       </c>
       <c r="D27" t="n">
-        <v>406.2801045061811</v>
+        <v>201.4636105166153</v>
       </c>
       <c r="E27" t="n">
-        <v>247.0426495007256</v>
+        <v>193.785812358081</v>
       </c>
       <c r="F27" t="n">
-        <v>247.0426495007256</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235048</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6336,19 +6336,19 @@
         <v>1531.74544423388</v>
       </c>
       <c r="U27" t="n">
-        <v>1455.099318376293</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1219.947210144551</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W27" t="n">
-        <v>1117.26951026327</v>
+        <v>814.1501965694281</v>
       </c>
       <c r="X27" t="n">
-        <v>954.0835223866602</v>
+        <v>749.2670283970942</v>
       </c>
       <c r="Y27" t="n">
-        <v>746.3232236217063</v>
+        <v>541.5067296321404</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.7381886323795</v>
+        <v>96.31218528794294</v>
       </c>
       <c r="C28" t="n">
-        <v>75.36166255139371</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139371</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695761</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992306</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998163</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906318</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906318</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1931552206159</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="K28" t="n">
-        <v>141.5187722296825</v>
+        <v>60.50640485454772</v>
       </c>
       <c r="L28" t="n">
-        <v>350.4946526511925</v>
+        <v>269.4822852760578</v>
       </c>
       <c r="M28" t="n">
-        <v>573.1447411496659</v>
+        <v>492.1323737745314</v>
       </c>
       <c r="N28" t="n">
-        <v>650.9237402018209</v>
+        <v>569.9113728266864</v>
       </c>
       <c r="O28" t="n">
-        <v>706.7489392077878</v>
+        <v>625.7365718326532</v>
       </c>
       <c r="P28" t="n">
-        <v>730.9963588296517</v>
+        <v>798.5276111301847</v>
       </c>
       <c r="Q28" t="n">
-        <v>812.8925548474424</v>
+        <v>816.4665515030048</v>
       </c>
       <c r="R28" t="n">
-        <v>795.5873829902359</v>
+        <v>799.1613796457984</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8285454553312</v>
+        <v>728.4025421108939</v>
       </c>
       <c r="T28" t="n">
-        <v>647.111244254112</v>
+        <v>650.6852409096748</v>
       </c>
       <c r="U28" t="n">
-        <v>509.4721575124086</v>
+        <v>513.0461541679715</v>
       </c>
       <c r="V28" t="n">
-        <v>406.3473261534429</v>
+        <v>409.9213228090058</v>
       </c>
       <c r="W28" t="n">
-        <v>268.4898129634033</v>
+        <v>272.0638096189664</v>
       </c>
       <c r="X28" t="n">
-        <v>192.0599189123071</v>
+        <v>195.6339155678703</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.8269966156981</v>
+        <v>126.4009932712614</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607513</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D29" t="n">
         <v>1044.075666754194</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028712</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601849</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
         <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450492</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906318</v>
@@ -6464,13 +6464,13 @@
         <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491199</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471602</v>
+        <v>955.9037100471603</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6494,19 +6494,19 @@
         <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367763</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>617.7798920756293</v>
+        <v>230.3230605788733</v>
       </c>
       <c r="C30" t="n">
-        <v>443.3268627945023</v>
+        <v>207.4296881446675</v>
       </c>
       <c r="D30" t="n">
-        <v>294.392453133251</v>
+        <v>207.4296881446675</v>
       </c>
       <c r="E30" t="n">
-        <v>166.0769629551537</v>
+        <v>193.785812358081</v>
       </c>
       <c r="F30" t="n">
-        <v>166.0769629551537</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0769629551537</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H30" t="n">
         <v>55.32608743906318</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119545</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1817.176831423646</v>
+        <v>1732.839313620733</v>
       </c>
       <c r="T30" t="n">
-        <v>1767.642618883715</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1539.436836179207</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>1304.284727947464</v>
+        <v>1068.38755329763</v>
       </c>
       <c r="W30" t="n">
-        <v>1050.047371219263</v>
+        <v>814.1501965694281</v>
       </c>
       <c r="X30" t="n">
-        <v>842.1958710137299</v>
+        <v>606.2986963638953</v>
       </c>
       <c r="Y30" t="n">
-        <v>785.9952290956973</v>
+        <v>398.5383975989413</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.31218528794273</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C31" t="n">
-        <v>78.9356592069571</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9356592069571</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>78.9356592069571</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992272</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998146</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906318</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906318</v>
+        <v>56.67269700900453</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32608743906318</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K31" t="n">
-        <v>207.7034149602739</v>
+        <v>140.1044708420433</v>
       </c>
       <c r="L31" t="n">
-        <v>287.4212256488769</v>
+        <v>349.0803512635534</v>
       </c>
       <c r="M31" t="n">
-        <v>510.0713141473506</v>
+        <v>423.1868200863595</v>
       </c>
       <c r="N31" t="n">
-        <v>587.8503131995055</v>
+        <v>500.9658191385145</v>
       </c>
       <c r="O31" t="n">
-        <v>792.21913188114</v>
+        <v>705.3346378201488</v>
       </c>
       <c r="P31" t="n">
-        <v>816.466551503004</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.466551503004</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>799.1613796457978</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>728.4025421108933</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>650.6852409096741</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>513.0461541679709</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>409.9213228090053</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>272.063809618966</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>195.63391556787</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4009932712611</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
@@ -6683,7 +6683,7 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.847071002872</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F32" t="n">
         <v>550.4208230601857</v>
@@ -6692,7 +6692,7 @@
         <v>282.9894504754849</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450504</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906318</v>
@@ -6707,13 +6707,13 @@
         <v>955.9037100471598</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
         <v>2542.656213831069</v>
@@ -6734,10 +6734,10 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
         <v>1941.804426953606</v>
@@ -6756,10 +6756,10 @@
         <v>524.8510494589937</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9576770247878</v>
+        <v>350.3980201778666</v>
       </c>
       <c r="D33" t="n">
-        <v>353.0232673635365</v>
+        <v>201.4636105166153</v>
       </c>
       <c r="E33" t="n">
         <v>193.785812358081</v>
@@ -6804,25 +6804,25 @@
         <v>1985.558603119545</v>
       </c>
       <c r="S33" t="n">
-        <v>1817.176831423646</v>
+        <v>1875.807645653932</v>
       </c>
       <c r="T33" t="n">
-        <v>1616.082962036794</v>
+        <v>1674.713776267079</v>
       </c>
       <c r="U33" t="n">
         <v>1446.507993562572</v>
       </c>
       <c r="V33" t="n">
-        <v>1362.91554217775</v>
+        <v>1211.355885330829</v>
       </c>
       <c r="W33" t="n">
-        <v>1108.678185449548</v>
+        <v>957.1185286026273</v>
       </c>
       <c r="X33" t="n">
-        <v>900.8266852440156</v>
+        <v>749.2670283970945</v>
       </c>
       <c r="Y33" t="n">
-        <v>693.0663864790617</v>
+        <v>541.5067296321405</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209087</v>
+        <v>91.32388724474187</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992294</v>
+        <v>73.94736116375616</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992294</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992294</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992294</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998157</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H34" t="n">
         <v>55.32608743906318</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900447</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905572</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="K34" t="n">
-        <v>132.3734726361004</v>
+        <v>209.0500245302152</v>
       </c>
       <c r="L34" t="n">
-        <v>341.3493530576104</v>
+        <v>269.4822852760578</v>
       </c>
       <c r="M34" t="n">
-        <v>563.999441556084</v>
+        <v>343.5887540988639</v>
       </c>
       <c r="N34" t="n">
-        <v>641.778440608239</v>
+        <v>569.9113728266863</v>
       </c>
       <c r="O34" t="n">
-        <v>697.6036396142058</v>
+        <v>705.3346378201492</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181802</v>
+        <v>729.5820574420131</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.043333635971</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787646</v>
+        <v>794.1730816025976</v>
       </c>
       <c r="S34" t="n">
-        <v>732.97932424386</v>
+        <v>723.4142440676929</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426407</v>
+        <v>645.6969428664738</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009375</v>
+        <v>508.0578561247705</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419717</v>
+        <v>404.9330247658048</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519323</v>
+        <v>267.0755115757654</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008361</v>
+        <v>190.6456175246693</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042272</v>
+        <v>121.4126952280604</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852423</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230554</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693747</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372717</v>
@@ -6935,16 +6935,16 @@
         <v>30.433907073934</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.937268332656</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550288</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241028</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N35" t="n">
         <v>1084.01979112136</v>
@@ -6968,16 +6968,16 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X35" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y35" t="n">
         <v>1019.301067000648</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>338.6057717406408</v>
+        <v>353.8213460163123</v>
       </c>
       <c r="C36" t="n">
-        <v>338.6057717406408</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D36" t="n">
-        <v>189.6713620793895</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E36" t="n">
         <v>30.433907073934</v>
@@ -7017,49 +7017,49 @@
         <v>54.79813383722131</v>
       </c>
       <c r="K36" t="n">
-        <v>54.79813383722131</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L36" t="n">
-        <v>342.4531504565509</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M36" t="n">
-        <v>599.722625361441</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="N36" t="n">
-        <v>976.3422254013743</v>
+        <v>887.335937826695</v>
       </c>
       <c r="O36" t="n">
-        <v>1288.313760533886</v>
+        <v>1199.307472959207</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1432.689066122021</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R36" t="n">
-        <v>1437.357835893787</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1067.882194811035</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U36" t="n">
-        <v>839.6764121065274</v>
+        <v>1092.39570160534</v>
       </c>
       <c r="V36" t="n">
-        <v>839.6764121065274</v>
+        <v>984.0343385295357</v>
       </c>
       <c r="W36" t="n">
-        <v>825.2163172228893</v>
+        <v>729.7969818013341</v>
       </c>
       <c r="X36" t="n">
-        <v>617.3648170173565</v>
+        <v>729.7969818013341</v>
       </c>
       <c r="Y36" t="n">
-        <v>409.6045182524026</v>
+        <v>522.0366830363803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C37" t="n">
         <v>30.433907073934</v>
@@ -7099,7 +7099,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7120,25 +7120,25 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S37" t="n">
-        <v>313.3387062996223</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T37" t="n">
-        <v>313.3387062996223</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U37" t="n">
-        <v>263.9172245555613</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V37" t="n">
-        <v>249.009998194238</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810905</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852423</v>
+        <v>743.2932336852425</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230554</v>
+        <v>624.8047969230556</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693747</v>
+        <v>478.793806169375</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243307</v>
+        <v>307.585163224331</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
         <v>30.433907073934</v>
@@ -7172,7 +7172,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020958</v>
       </c>
       <c r="K38" t="n">
         <v>226.9372683326557</v>
@@ -7181,16 +7181,16 @@
         <v>485.3806706550284</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P38" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
         <v>1521.6953536967</v>
@@ -7217,7 +7217,7 @@
         <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>410.4660875395778</v>
+        <v>226.9393994197945</v>
       </c>
       <c r="C39" t="n">
-        <v>410.4660875395778</v>
+        <v>226.9393994197945</v>
       </c>
       <c r="D39" t="n">
-        <v>410.4660875395778</v>
+        <v>78.00498975854322</v>
       </c>
       <c r="E39" t="n">
-        <v>279.6445075090423</v>
+        <v>78.00498975854322</v>
       </c>
       <c r="F39" t="n">
-        <v>279.6445075090423</v>
+        <v>78.00498975854322</v>
       </c>
       <c r="G39" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H39" t="n">
         <v>30.433907073934</v>
@@ -7251,52 +7251,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722131</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K39" t="n">
-        <v>223.0613211674322</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L39" t="n">
-        <v>510.7163377867618</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="M39" t="n">
-        <v>887.335937826695</v>
+        <v>575.3166944440782</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.412173483916</v>
+        <v>951.9362944840115</v>
       </c>
       <c r="O39" t="n">
-        <v>1418.383708616427</v>
+        <v>1263.907829616523</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616427</v>
+        <v>1497.289422779337</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893787</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1268.976064197888</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T39" t="n">
-        <v>1268.976064197888</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U39" t="n">
-        <v>1040.77028149338</v>
+        <v>1092.39570160534</v>
       </c>
       <c r="V39" t="n">
-        <v>1040.77028149338</v>
+        <v>857.2435933735969</v>
       </c>
       <c r="W39" t="n">
-        <v>786.5329247651787</v>
+        <v>603.0062366453953</v>
       </c>
       <c r="X39" t="n">
-        <v>578.6814245596458</v>
+        <v>395.1547364398625</v>
       </c>
       <c r="Y39" t="n">
-        <v>578.6814245596458</v>
+        <v>395.1547364398625</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E40" t="n">
         <v>30.433907073934</v>
@@ -7336,7 +7336,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7357,25 +7357,25 @@
         <v>326.6579621681119</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V40" t="n">
-        <v>227.9869088487242</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y40" t="n">
-        <v>178.3470006563271</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829025</v>
+        <v>976.4306445829033</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416658</v>
+        <v>830.5994560416666</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340906</v>
+        <v>695.4650858340913</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350216</v>
+        <v>532.8081616350222</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445892</v>
+        <v>344.9535852445897</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969244</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K41" t="n">
         <v>231.0138234621385</v>
@@ -7418,43 +7418,43 @@
         <v>489.4572257845113</v>
       </c>
       <c r="M41" t="n">
-        <v>916.5241955517949</v>
+        <v>916.5241955517952</v>
       </c>
       <c r="N41" t="n">
         <v>1210.988688749052</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.714380661073</v>
+        <v>1443.855521814622</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.78645221041</v>
+        <v>1604.927593363959</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170843</v>
+        <v>1648.664251324393</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501725</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557329</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.24158968639</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824486</v>
+        <v>1306.907159824487</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247849</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>262.0107067221039</v>
+        <v>332.2076421278903</v>
       </c>
       <c r="C42" t="n">
-        <v>262.0107067221039</v>
+        <v>332.2076421278903</v>
       </c>
       <c r="D42" t="n">
-        <v>262.0107067221039</v>
+        <v>332.2076421278903</v>
       </c>
       <c r="E42" t="n">
-        <v>262.0107067221039</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="F42" t="n">
-        <v>115.4761487489889</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670418</v>
+        <v>58.8746889667042</v>
       </c>
       <c r="K42" t="n">
-        <v>58.87468896670418</v>
+        <v>227.1378762969151</v>
       </c>
       <c r="L42" t="n">
-        <v>346.5297055860338</v>
+        <v>514.7928929162447</v>
       </c>
       <c r="M42" t="n">
-        <v>734.1887638104965</v>
+        <v>663.2320834276534</v>
       </c>
       <c r="N42" t="n">
-        <v>1076.858336795245</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
         <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.211465090571</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.18559236793</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S42" t="n">
-        <v>1641.18559236793</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T42" t="n">
-        <v>1440.091722981077</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U42" t="n">
-        <v>1211.885940276569</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V42" t="n">
-        <v>976.7338320448268</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W42" t="n">
-        <v>722.4964753166253</v>
+        <v>916.034778118445</v>
       </c>
       <c r="X42" t="n">
-        <v>514.6449751110924</v>
+        <v>708.1832779129122</v>
       </c>
       <c r="Y42" t="n">
-        <v>306.8846763461385</v>
+        <v>500.4229791479583</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896009</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480269</v>
+        <v>98.77643079480271</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
@@ -7594,10 +7594,10 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975947</v>
+        <v>209.4207309851713</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486295</v>
+        <v>203.275101336206</v>
       </c>
       <c r="U43" t="n">
         <v>137.2076861467565</v>
@@ -7606,13 +7606,13 @@
         <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225912</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829026</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416659</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340906</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350214</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.953585244589</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0938842121421</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>131.9778809843262</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K44" t="n">
-        <v>298.1625482367722</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>556.605950559145</v>
+        <v>658.0807932294225</v>
       </c>
       <c r="M44" t="n">
-        <v>860.7805778282191</v>
+        <v>962.2554204984965</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.847547595503</v>
+        <v>1256.719913695753</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.714380661073</v>
+        <v>1489.586746761323</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.78645221041</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501725</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824486</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247849</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.310523193476</v>
+        <v>458.1740919196523</v>
       </c>
       <c r="C45" t="n">
-        <v>624.310523193476</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="D45" t="n">
-        <v>475.3761135322247</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="E45" t="n">
-        <v>316.1386585267692</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="F45" t="n">
-        <v>169.6041005536542</v>
+        <v>283.7210626385253</v>
       </c>
       <c r="G45" t="n">
-        <v>169.6041005536542</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670418</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>227.137876296915</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>514.7928929162447</v>
+        <v>490.4286661529574</v>
       </c>
       <c r="M45" t="n">
-        <v>902.4519511407074</v>
+        <v>878.08772437742</v>
       </c>
       <c r="N45" t="n">
-        <v>1316.0782045083</v>
+        <v>1291.713977745013</v>
       </c>
       <c r="O45" t="n">
         <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090571</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170843</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.18559236793</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1472.803820672031</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1271.709951285179</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1043.504168580671</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1031.483388748103</v>
+        <v>1031.483388748104</v>
       </c>
       <c r="W45" t="n">
-        <v>1000.377360419077</v>
+        <v>834.1497277046742</v>
       </c>
       <c r="X45" t="n">
-        <v>792.525860213544</v>
+        <v>834.1497277046742</v>
       </c>
       <c r="Y45" t="n">
-        <v>792.525860213544</v>
+        <v>626.3894289397203</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341687</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341687</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896009</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480269</v>
+        <v>98.77643079480271</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
@@ -7825,31 +7825,31 @@
         <v>330.7345172975947</v>
       </c>
       <c r="Q46" t="n">
-        <v>262.7338809769369</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="R46" t="n">
-        <v>262.7338809769369</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>262.7338809769369</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
-        <v>256.5882513279716</v>
+        <v>324.5888876486295</v>
       </c>
       <c r="U46" t="n">
-        <v>190.5208361385222</v>
+        <v>258.52147245918</v>
       </c>
       <c r="V46" t="n">
-        <v>158.9676763318104</v>
+        <v>226.9683126524682</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225912</v>
+        <v>160.6824710146827</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341687</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341687</v>
+        <v>155.8242485158404</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504508</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751714</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>387.1824019899182</v>
+        <v>217.0510374314573</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6411792741528</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
         <v>61.53807801265197</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>195.6274316695927</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711651</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714829</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>250.0153809463225</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>440.1042398205829</v>
+        <v>74.13025746266385</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265197</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>209.3246353461868</v>
       </c>
       <c r="L21" t="n">
-        <v>356.3904892372032</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>454.5540958868389</v>
       </c>
       <c r="N21" t="n">
-        <v>61.53807801265197</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>78.7395565166168</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9717,25 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868386</v>
       </c>
       <c r="N24" t="n">
-        <v>441.961916436827</v>
+        <v>71.69855201032189</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>222.5174167492744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>333.9984139322498</v>
+        <v>74.13025746266385</v>
       </c>
       <c r="N36" t="n">
         <v>441.961916436827</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>195.627431669593</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565151</v>
       </c>
       <c r="M39" t="n">
         <v>454.5540958868389</v>
       </c>
       <c r="N39" t="n">
-        <v>282.8272049391377</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3745461571523</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>224.068833736814</v>
       </c>
       <c r="N42" t="n">
-        <v>407.6689598154283</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>152.2260892635427</v>
+        <v>176.8364193274701</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
-        <v>98.55524922717839</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>158.0304489926747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
         <v>222.9664405879705</v>
@@ -23504,16 +23504,16 @@
         <v>250.2137690395493</v>
       </c>
       <c r="F14" t="n">
-        <v>275.159444708999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>104.0758184605991</v>
       </c>
       <c r="H14" t="n">
         <v>202.6210018711097</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642694</v>
+        <v>59.42064602642688</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874627</v>
+        <v>65.87283976874622</v>
       </c>
       <c r="T14" t="n">
-        <v>69.06412610610914</v>
+        <v>89.18341408247082</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048977</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847006</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233411</v>
       </c>
     </row>
     <row r="15">
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.00097671927142e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736304</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
-        <v>562432.1742653463</v>
+        <v>562432.1742653465</v>
       </c>
       <c r="F2" t="n">
         <v>562432.174265346</v>
       </c>
       <c r="G2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="H2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="I2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="J2" t="n">
-        <v>656833.415891426</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="K2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914259</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="N2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="O2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="P2" t="n">
         <v>656833.4158914268</v>
-      </c>
-      <c r="O2" t="n">
-        <v>656833.4158914271</v>
-      </c>
-      <c r="P2" t="n">
-        <v>656833.4158914271</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472427</v>
+        <v>84530.31055472433</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239524</v>
+        <v>87131.0989423952</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.1967351044</v>
+        <v>34584.19673510439</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>310803.6100166999</v>
+        <v>310803.6100166998</v>
       </c>
       <c r="F4" t="n">
         <v>310803.6100166998</v>
@@ -26433,31 +26433,31 @@
         <v>377919.8023185457</v>
       </c>
       <c r="H4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185456</v>
       </c>
       <c r="J4" t="n">
-        <v>376828.4269773416</v>
+        <v>376828.4269773417</v>
       </c>
       <c r="K4" t="n">
         <v>376828.4269773418</v>
       </c>
       <c r="L4" t="n">
-        <v>376828.4269773417</v>
+        <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
-        <v>377919.8023185458</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="N4" t="n">
         <v>377919.8023185456</v>
       </c>
       <c r="O4" t="n">
+        <v>376989.2813831305</v>
+      </c>
+      <c r="P4" t="n">
         <v>376989.2813831306</v>
-      </c>
-      <c r="P4" t="n">
-        <v>376989.2813831305</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>45806.17671431453</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561138</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="L5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431453</v>
@@ -26506,10 +26506,10 @@
         <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368934</v>
+        <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368934</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185519.5912543825</v>
+        <v>185515.1776765141</v>
       </c>
       <c r="C6" t="n">
-        <v>185519.5912543825</v>
+        <v>185515.1776765143</v>
       </c>
       <c r="D6" t="n">
-        <v>185519.5912543824</v>
+        <v>185515.1776765145</v>
       </c>
       <c r="E6" t="n">
-        <v>-104500.7840371271</v>
+        <v>-104795.7879172082</v>
       </c>
       <c r="F6" t="n">
-        <v>214705.3608818632</v>
+        <v>214410.3570017816</v>
       </c>
       <c r="G6" t="n">
         <v>148577.1263038427</v>
       </c>
       <c r="H6" t="n">
-        <v>233107.4368585667</v>
+        <v>233107.4368585669</v>
       </c>
       <c r="I6" t="n">
-        <v>233107.4368585667</v>
+        <v>233107.4368585668</v>
       </c>
       <c r="J6" t="n">
-        <v>105706.8991372625</v>
+        <v>105706.8991372632</v>
       </c>
       <c r="K6" t="n">
-        <v>222622.9572984733</v>
+        <v>222622.9572984735</v>
       </c>
       <c r="L6" t="n">
-        <v>138092.6467437485</v>
+        <v>138092.6467437488</v>
       </c>
       <c r="M6" t="n">
-        <v>145976.3379161717</v>
+        <v>145976.3379161714</v>
       </c>
       <c r="N6" t="n">
-        <v>233107.4368585667</v>
+        <v>233107.4368585668</v>
       </c>
       <c r="O6" t="n">
-        <v>197740.9920695027</v>
+        <v>197740.9920695023</v>
       </c>
       <c r="P6" t="n">
-        <v>232325.1888046072</v>
+        <v>232325.1888046069</v>
       </c>
     </row>
   </sheetData>
@@ -26695,22 +26695,22 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26719,7 +26719,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26799,7 +26799,7 @@
         <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="G4" t="n">
         <v>380.423838424175</v>
@@ -26808,10 +26808,10 @@
         <v>380.423838424175</v>
       </c>
       <c r="I4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882897</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882897</v>
@@ -26826,10 +26826,10 @@
         <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427109</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427109</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766595</v>
+        <v>87.33542894766592</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.90169797411195</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641147</v>
+        <v>311.1522545641148</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853584</v>
+        <v>50.95693911853607</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>15.76699017642144</v>
       </c>
       <c r="F12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28214,14 +28214,14 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="T12" t="n">
-        <v>15.76699017642119</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>131.7166010327126</v>
@@ -28272,7 +28272,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>116.6552291119084</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119094</v>
       </c>
       <c r="O13" t="n">
         <v>131.7166010327126</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F15" t="n">
-        <v>125.4103569373518</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
         <v>80.15602968011626</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327124</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327124</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327124</v>
+        <v>99.26113280130664</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J16" t="n">
-        <v>116.6552291119122</v>
+        <v>116.6552291119109</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327124</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327124</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>74.61568301766764</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
         <v>80.15602968011626</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>166.6979539789397</v>
@@ -28697,19 +28697,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>155.5220851207655</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28770,19 +28770,19 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
-        <v>39.66242502957505</v>
+        <v>39.66242502957488</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28886,19 +28886,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>125.5107640179451</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>32.20253884836157</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29007,19 +29007,19 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957488</v>
       </c>
       <c r="T22" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.94660481768543</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29065,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="R23" t="n">
         <v>118.359332514826</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0751276698277</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>16.32251199603607</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,10 +29171,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.5148621174566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29211,7 +29211,7 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H25" t="n">
-        <v>146.9699363044149</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I25" t="n">
         <v>148.6838485916426</v>
@@ -29247,16 +29247,16 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>226.984188467659</v>
+        <v>213.7274844763126</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K26" t="n">
-        <v>150.0440602784531</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,16 +29408,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.0440602784519</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>44.21885720563364</v>
+        <v>141.538648712867</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,40 +29430,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0440602784519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>150.0440602784519</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K28" t="n">
-        <v>10.59788804396307</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,34 +29472,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.0440602784519</v>
+        <v>85.44077174817856</v>
       </c>
       <c r="R28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.0440602784519</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="30">
@@ -29591,22 +29591,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>30.61274517908457</v>
+        <v>144.1376434266803</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
         <v>80.15602968011626</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45106251930777</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K31" t="n">
-        <v>150.0440602784521</v>
+        <v>7.809089096911874</v>
       </c>
       <c r="L31" t="n">
-        <v>19.48035347753571</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.32062995745122</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M32" t="n">
-        <v>150.0440602784528</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N32" t="n">
         <v>150.044060278452</v>
@@ -29788,7 +29788,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.044060278452</v>
+        <v>150.044060278453</v>
       </c>
       <c r="Q32" t="n">
         <v>150.044060278452</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>58.04450608798297</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>58.04450608798297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29928,25 +29928,25 @@
         <v>150.044060278452</v>
       </c>
       <c r="J34" t="n">
+        <v>77.45106251930777</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M34" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>80.40208685605657</v>
       </c>
       <c r="P34" t="n">
-        <v>17.47078624455593</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>150.044060278452</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.24442460322317</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30122,13 +30122,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>125.5228377043795</v>
       </c>
       <c r="W36" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30192,7 +30192,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S37" t="n">
-        <v>206.9092461282029</v>
+        <v>39.66242502957505</v>
       </c>
       <c r="T37" t="n">
         <v>226.984188467659</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="39">
@@ -30305,19 +30305,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>28.13171622517083</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>89.97975581206455</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
         <v>80.15602968011626</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30429,19 +30429,19 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957488</v>
       </c>
       <c r="T40" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
-        <v>203.3805674642546</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30490,13 +30490,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>124.1336792911209</v>
+        <v>124.1336792911212</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>77.63521095601135</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.359332514826</v>
+        <v>195.9945434708378</v>
       </c>
       <c r="S41" t="n">
         <v>197.5894408014587</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>122.1079537220731</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -30545,19 +30545,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,10 +30596,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>137.400858637557</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30666,13 +30666,13 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098870835</v>
       </c>
       <c r="T43" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>100.799366665884</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
         <v>220.9000151151833</v>
@@ -30718,25 +30718,25 @@
         <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
-        <v>67.82699472185226</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>170.3268358029406</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>133.9418955252798</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>31.44205444419237</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>56.05669447431089</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30836,13 +30836,13 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W45" t="n">
-        <v>220.9000151151833</v>
+        <v>56.33465872792382</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>47.14617264932855</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30915,7 +30915,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1199966233352</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X46" t="n">
         <v>220.9000151151833</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N11" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O11" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P11" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N12" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095297</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31920,13 +31920,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K13" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L13" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799863</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N14" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O14" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P14" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,16 +32084,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N15" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q15" t="n">
         <v>34.25968340095297</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32157,13 +32157,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K16" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L16" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799863</v>
@@ -32181,10 +32181,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N17" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O17" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P17" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,16 +32321,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N18" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095297</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32394,13 +32394,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K19" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L19" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799863</v>
@@ -32418,10 +32418,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N20" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O20" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P20" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32503,7 +32503,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,16 +32558,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N21" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q21" t="n">
         <v>34.25968340095297</v>
@@ -32576,7 +32576,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32631,13 +32631,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K22" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L22" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N22" t="n">
         <v>34.43247312799863</v>
@@ -32655,10 +32655,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N23" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O23" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P23" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32740,7 +32740,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,16 +32795,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N24" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095297</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32868,13 +32868,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K25" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L25" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799863</v>
@@ -32892,10 +32892,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N26" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O26" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P26" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -32977,7 +32977,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,16 +33032,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N27" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q27" t="n">
         <v>34.25968340095297</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33105,13 +33105,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K28" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L28" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799863</v>
@@ -33129,10 +33129,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N29" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O29" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P29" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33214,7 +33214,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,16 +33269,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N30" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q30" t="n">
         <v>34.25968340095297</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33342,13 +33342,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K31" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L31" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N31" t="n">
         <v>34.43247312799863</v>
@@ -33366,10 +33366,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N32" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O32" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P32" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33451,7 +33451,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,16 +33506,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N33" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q33" t="n">
         <v>34.25968340095297</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33579,13 +33579,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K34" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L34" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N34" t="n">
         <v>34.43247312799863</v>
@@ -33603,10 +33603,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N35" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O35" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P35" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33688,7 +33688,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,16 +33743,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N36" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q36" t="n">
         <v>34.25968340095297</v>
@@ -33761,7 +33761,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33816,13 +33816,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K37" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L37" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N37" t="n">
         <v>34.43247312799863</v>
@@ -33840,10 +33840,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N38" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O38" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P38" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33925,7 +33925,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,16 +33980,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N39" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q39" t="n">
         <v>34.25968340095297</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34053,13 +34053,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K40" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L40" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N40" t="n">
         <v>34.43247312799863</v>
@@ -34077,10 +34077,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N41" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O41" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P41" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34162,7 +34162,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,16 +34217,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N42" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q42" t="n">
         <v>34.25968340095297</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34290,13 +34290,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K43" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L43" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N43" t="n">
         <v>34.43247312799863</v>
@@ -34314,10 +34314,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N44" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O44" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P44" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34399,7 +34399,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,16 +34454,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N45" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q45" t="n">
         <v>34.25968340095297</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34527,13 +34527,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K46" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L46" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N46" t="n">
         <v>34.43247312799863</v>
@@ -34551,10 +34551,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406823</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L11" t="n">
-        <v>261.0539417397708</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
         <v>307.2470982515899</v>
@@ -35489,7 +35489,7 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478077</v>
@@ -35498,16 +35498,16 @@
         <v>380.423838424175</v>
       </c>
       <c r="N12" t="n">
-        <v>325.6443239772663</v>
+        <v>155.5129594188054</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340485</v>
+        <v>54.26553851340479</v>
       </c>
       <c r="K13" t="n">
-        <v>120.5276612791237</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456481</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>195.2198746191366</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377297</v>
+        <v>188.1056909377296</v>
       </c>
       <c r="P13" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.3959710752614</v>
+        <v>64.39597107526134</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.16047399767058</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850615</v>
@@ -35732,7 +35732,7 @@
         <v>290.5606228478077</v>
       </c>
       <c r="M15" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3551970507805</v>
+        <v>89.90534098452417</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.2041665926044</v>
+        <v>39.20416659260314</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999278</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547757</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M16" t="n">
-        <v>206.5716200456479</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N16" t="n">
         <v>210.2812465399397</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377295</v>
+        <v>188.1056909377296</v>
       </c>
       <c r="P16" t="n">
-        <v>24.49234305238789</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526123</v>
+        <v>64.39597107526129</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K17" t="n">
-        <v>167.8633002549964</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L17" t="n">
         <v>261.0539417397704</v>
@@ -35899,7 +35899,7 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P17" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710481</v>
       </c>
       <c r="Q17" t="n">
         <v>44.17844238427583</v>
@@ -35963,16 +35963,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9628154850615</v>
+        <v>155.5129594188053</v>
       </c>
       <c r="L18" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M18" t="n">
-        <v>365.9739823579191</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206326</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36127,7 +36127,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N20" t="n">
         <v>297.4388820174311</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427637</v>
+        <v>44.17844238427583</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850615</v>
+        <v>114.8222138186697</v>
       </c>
       <c r="L21" t="n">
-        <v>276.1107667815517</v>
+        <v>290.5606228478077</v>
       </c>
       <c r="M21" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O21" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L22" t="n">
         <v>61.04268762206326</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L23" t="n">
-        <v>261.0539417397708</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
         <v>307.2470982515899</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427545</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L24" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>380.423838424175</v>
+        <v>10.16047399766993</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>139.7936311020789</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206326</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
-        <v>317.9073605334491</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182223</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300418</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
-        <v>447.4829422958829</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P26" t="n">
-        <v>312.7431224494997</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627277</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362595</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882724</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520649</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,19 +36747,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809445</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914413</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.47032021117842</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0867479005151</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N28" t="n">
         <v>78.56464550722723</v>
@@ -36768,10 +36768,10 @@
         <v>56.38908990501707</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238789</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100068</v>
+        <v>18.12014179072735</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191345</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K29" t="n">
         <v>317.9073605334481</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
-        <v>457.291158530042</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958832</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
         <v>385.2630835770078</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627279</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362611</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>4.62301225552082</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,19 +36984,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.360211686809445</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.59299775914424</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>11.68152126412723</v>
       </c>
       <c r="L31" t="n">
-        <v>80.52304109959897</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913875</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N31" t="n">
         <v>78.56464550722723</v>
@@ -37008,7 +37008,7 @@
         <v>24.49234305238789</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191343</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
@@ -37075,7 +37075,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300427</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
         <v>447.482942295883</v>
@@ -37084,13 +37084,13 @@
         <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224495008</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.684727763626</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809388</v>
+        <v>1.360211686809417</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914418</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215351</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N34" t="n">
-        <v>78.56464550722723</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501707</v>
+        <v>136.7911767610736</v>
       </c>
       <c r="P34" t="n">
-        <v>41.96312929694382</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100073</v>
+        <v>82.72343032100076</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K35" t="n">
-        <v>167.8633002549964</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L35" t="n">
         <v>261.0539417397704</v>
@@ -37385,13 +37385,13 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L36" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M36" t="n">
-        <v>259.868156469586</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>380.423838424175</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>89.90534098452441</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206326</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>169.9628154850615</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5606228478077</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N39" t="n">
-        <v>221.2891269264857</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>24.65245547208371</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206326</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37786,13 +37786,13 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>431.3807775427109</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N41" t="n">
         <v>297.4388820174311</v>
       </c>
       <c r="O41" t="n">
-        <v>312.8542342545671</v>
+        <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
         <v>162.6990621710478</v>
@@ -37801,7 +37801,7 @@
         <v>44.17844238427583</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>77.63521095601189</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M42" t="n">
-        <v>391.5748062873361</v>
+        <v>149.9385762741502</v>
       </c>
       <c r="N42" t="n">
-        <v>346.1308818027763</v>
+        <v>417.8042963309016</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206326</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.45193816253465</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
-        <v>261.0539417397704</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="M44" t="n">
         <v>307.2470982515899</v>
       </c>
       <c r="N44" t="n">
-        <v>431.3807775427109</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>194.1411166152402</v>
       </c>
       <c r="Q44" t="n">
         <v>44.17844238427583</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>169.9628154850615</v>
@@ -38108,7 +38108,7 @@
         <v>417.8042963309016</v>
       </c>
       <c r="O45" t="n">
-        <v>73.48653274692595</v>
+        <v>98.09686281085332</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215354</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206326</v>
